--- a/screening_deep.xlsx
+++ b/screening_deep.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ΔΗΜΗΤΡΗΣ\Documents\GitHubs\AI-marine-litter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1F219-17E0-4F56-AA31-A2B4E0668618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D939C-EB52-438F-9782-5FF2773BBDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31155" yWindow="765" windowWidth="25770" windowHeight="13650" xr2:uid="{9E4A43DE-8FF9-4A91-B492-0B4C1599A160}"/>
+    <workbookView xWindow="29730" yWindow="735" windowWidth="25770" windowHeight="10395" xr2:uid="{9E4A43DE-8FF9-4A91-B492-0B4C1599A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="264">
   <si>
     <t>References</t>
   </si>
@@ -664,15 +664,6 @@
   </si>
   <si>
     <t>0,77-0,86</t>
-  </si>
-  <si>
-    <t>0,77-0,87</t>
-  </si>
-  <si>
-    <t>0,77-0,88</t>
-  </si>
-  <si>
-    <t>0,77-0,89</t>
   </si>
   <si>
     <t>Camera</t>
@@ -1384,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789D46A0-4CC3-42C0-9023-C48815470A65}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1423,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>194</v>
@@ -1438,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>140</v>
@@ -1467,10 +1458,10 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>193</v>
@@ -1479,7 +1470,7 @@
         <v>106</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>157</v>
@@ -1514,7 +1505,7 @@
         <v>161</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>195</v>
@@ -1524,7 +1515,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>153</v>
@@ -1536,7 +1527,7 @@
         <v>138</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1556,7 +1547,7 @@
         <v>196</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>197</v>
@@ -1600,7 +1591,7 @@
         <v>196</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>198</v>
@@ -1644,7 +1635,7 @@
         <v>199</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G6" s="2">
         <v>0.96</v>
@@ -1654,7 +1645,7 @@
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>155</v>
@@ -1680,13 +1671,13 @@
         <v>2019</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="5" t="s">
@@ -1725,10 +1716,10 @@
         <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G8" s="2">
         <v>0.82</v>
@@ -1769,10 +1760,10 @@
         <v>180</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>200</v>
@@ -1781,7 +1772,7 @@
         <v>181</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>157</v>
@@ -1804,40 +1795,38 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>266</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I10" s="8"/>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>141</v>
@@ -1848,28 +1837,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>179</v>
+        <v>146</v>
       </c>
       <c r="C11" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>265</v>
+        <v>203</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>266</v>
+        <v>71</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>157</v>
@@ -1878,10 +1867,10 @@
         <v>153</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>141</v>
@@ -1892,129 +1881,129 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>265</v>
+        <v>199</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>266</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I12" s="3"/>
       <c r="J12" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>206</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="C14" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2022,85 +2011,85 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1">
         <v>2021</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="7" t="s">
-        <v>259</v>
+        <v>101</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>151</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>126</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="H16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="8"/>
       <c r="J16" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2108,43 +2097,43 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>211</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>83</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2152,40 +2141,40 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="C18" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>101</v>
+        <v>247</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>141</v>
@@ -2196,41 +2185,43 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>213</v>
+        <v>258</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.75</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="8"/>
+        <v>33</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -2238,87 +2229,87 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>182</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>248</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>266</v>
+        <v>35</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2326,175 +2317,169 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C22" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>33</v>
+        <v>254</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C23" s="1">
         <v>2020</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>215</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>88</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="I23" s="8"/>
       <c r="J23" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1">
         <v>2020</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="H24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="C25" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>254</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>148</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2502,125 +2487,129 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C26" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>166</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0.72</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>167</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1">
         <v>2020</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="3"/>
+        <v>258</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>93</v>
+      </c>
       <c r="J27" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
+      <c r="B28" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="20">
+        <v>2022</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>92</v>
+        <v>254</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>263</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="4" t="s">
+      <c r="K28" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>142</v>
+      <c r="M28" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N28" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2628,128 +2617,120 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="C29" s="1">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>245</v>
+        <v>201</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0.72</v>
+        <v>254</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>157</v>
+        <v>27</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1">
         <v>2020</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="H30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>93</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I30" s="8"/>
       <c r="J30" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="20">
-        <v>2022</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G31" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>266</v>
-      </c>
+      <c r="H31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="3"/>
       <c r="J31" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K31" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L31" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M31" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="N31" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2758,38 +2739,38 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>25</v>
+        <v>249</v>
       </c>
       <c r="C32" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>251</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I32" s="8"/>
+        <v>250</v>
+      </c>
+      <c r="I32" s="3"/>
       <c r="J32" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>141</v>
@@ -2800,70 +2781,74 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="C33" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="8"/>
+        <v>187</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="J33" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="I34" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="I34" s="8"/>
       <c r="J34" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>151</v>
@@ -2880,38 +2865,36 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>252</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1">
         <v>2021</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>204</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I35" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="I35" s="8"/>
       <c r="J35" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>141</v>
@@ -2922,77 +2905,81 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>185</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>186</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>225</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="J36" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="C37" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>226</v>
+        <v>255</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.44</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="8"/>
+        <v>191</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>138</v>
@@ -3005,39 +2992,41 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="1">
+      <c r="B38" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="20">
         <v>2021</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="2"/>
+      <c r="D38" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>262</v>
+      </c>
       <c r="F38" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>263</v>
+      </c>
       <c r="J38" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K38" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N38" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K38" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M38" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="N38" s="20" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3046,81 +3035,73 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I39" s="3"/>
       <c r="J39" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0.44</v>
+        <v>254</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>227</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>95</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="I40" s="8"/>
       <c r="J40" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>138</v>
@@ -3129,45 +3110,47 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="20">
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
         <v>2021</v>
       </c>
-      <c r="D41" s="21" t="s">
-        <v>113</v>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="32" t="s">
-        <v>262</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K41" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L41" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="N41" s="20" t="s">
+      <c r="K41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N41" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3176,39 +3159,43 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="F42" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>229</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="J42" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>156</v>
+        <v>81</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3216,33 +3203,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>230</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="8"/>
+        <v>18</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="J43" s="7" t="s">
-        <v>259</v>
+        <v>157</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>138</v>
@@ -3256,28 +3247,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C44" s="1">
         <v>2021</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>231</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J44" s="7" t="s">
         <v>157</v>
@@ -3286,57 +3277,57 @@
         <v>81</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="C45" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>232</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3344,37 +3335,35 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C46" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>96</v>
-      </c>
+      <c r="H46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="3"/>
       <c r="J46" s="7" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>138</v>
@@ -3383,446 +3372,313 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>204</v>
+      <c r="B47" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G47" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="H47" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L47" s="4" t="s">
+      <c r="H47" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="M47" s="16" t="s">
         <v>138</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>196</v>
+      <c r="B48" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="24">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G48" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G48" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J48" s="4" t="s">
+      <c r="H48" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J48" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="K48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L48" s="4" t="s">
+      <c r="K48" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="L48" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>204</v>
+      <c r="B49" s="24" t="s">
+        <v>238</v>
+      </c>
+      <c r="C49" s="24">
+        <v>2022</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L49" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="17">
+        <v>0.91</v>
+      </c>
+      <c r="H49" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="I49" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="L49" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M49" s="4" t="s">
+      <c r="M49" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="24" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="14">
-        <v>2016</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>161</v>
+      <c r="B50" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="24">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="H50" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="K50" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M50" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="17">
+        <v>0.77</v>
+      </c>
+      <c r="H50" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" s="18" t="s">
         <v>138</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>133</v>
+      <c r="B51" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C51" s="24">
         <v>2020</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G51" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H51" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>94</v>
+        <v>30</v>
+      </c>
+      <c r="I51" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="J51" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="K51" s="4" t="s">
         <v>153</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="N51" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N51" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="24" t="s">
-        <v>241</v>
+      <c r="B52" s="9" t="s">
+        <v>129</v>
       </c>
       <c r="C52" s="24">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E52" s="17" t="s">
-        <v>204</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E52" s="17"/>
       <c r="F52" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G52" s="17">
-        <v>0.91</v>
-      </c>
-      <c r="H52" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="J52" s="31" t="s">
-        <v>157</v>
+        <v>254</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="18" t="s">
+        <v>256</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="N52" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N52" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
-        <v>52</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="24">
-        <v>2019</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0.77</v>
-      </c>
-      <c r="H53" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J53" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="L53" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="M53" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="24">
-        <v>2020</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="H54" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J54" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="L54" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="M54" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="24">
-        <v>2021</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E55" s="17"/>
-      <c r="F55" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="K55" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L55" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M55" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N55" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N55" xr:uid="{789D46A0-4CC3-42C0-9023-C48815470A65}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N55">
-    <sortCondition ref="B1:B55"/>
+  <autoFilter ref="A1:N52" xr:uid="{789D46A0-4CC3-42C0-9023-C48815470A65}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
+    <sortCondition ref="B1:B52"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H44" r:id="rId1" xr:uid="{92E486BF-BD84-4CBE-B8DE-55B9096721DA}"/>
-    <hyperlink ref="H28" r:id="rId2" xr:uid="{90E5CE4A-0298-4407-A0C0-6C1A04BF00E7}"/>
-    <hyperlink ref="H33" r:id="rId3" xr:uid="{2C202121-979D-4E8B-992C-506307F9F72D}"/>
-    <hyperlink ref="H17" r:id="rId4" xr:uid="{095524AE-D32E-4711-B5D2-A9B0A9F8B310}"/>
-    <hyperlink ref="H20" r:id="rId5" xr:uid="{DBC530D3-8CEB-431D-BB68-C1D4D1EEC94B}"/>
-    <hyperlink ref="H46" r:id="rId6" xr:uid="{AC4C0384-BCF2-4BC1-8278-5645068DACA4}"/>
+    <hyperlink ref="H41" r:id="rId1" xr:uid="{92E486BF-BD84-4CBE-B8DE-55B9096721DA}"/>
+    <hyperlink ref="H25" r:id="rId2" xr:uid="{90E5CE4A-0298-4407-A0C0-6C1A04BF00E7}"/>
+    <hyperlink ref="H30" r:id="rId3" xr:uid="{2C202121-979D-4E8B-992C-506307F9F72D}"/>
+    <hyperlink ref="H14" r:id="rId4" xr:uid="{095524AE-D32E-4711-B5D2-A9B0A9F8B310}"/>
+    <hyperlink ref="H17" r:id="rId5" xr:uid="{DBC530D3-8CEB-431D-BB68-C1D4D1EEC94B}"/>
+    <hyperlink ref="H43" r:id="rId6" xr:uid="{AC4C0384-BCF2-4BC1-8278-5645068DACA4}"/>
     <hyperlink ref="H7" r:id="rId7" xr:uid="{64BB1254-C2C4-4F58-BB6D-D1810CE9504F}"/>
-    <hyperlink ref="H30" r:id="rId8" xr:uid="{E408494E-7E8E-41D7-938A-3B6D6C73155E}"/>
-    <hyperlink ref="H32" r:id="rId9" xr:uid="{ED07EF6C-6B1F-4EA2-91E3-A1C979C1693B}"/>
-    <hyperlink ref="H54" r:id="rId10" xr:uid="{ED7E6175-FDA5-4A53-9D9E-E283CB8D9D72}"/>
-    <hyperlink ref="H22" r:id="rId11" xr:uid="{4F7727DE-AC86-446A-8520-734F8430C4D8}"/>
-    <hyperlink ref="H24" r:id="rId12" xr:uid="{913D367D-AED8-48DA-AB52-F7C3923CBD60}"/>
-    <hyperlink ref="H53" r:id="rId13" xr:uid="{A2AF3482-4DB3-436D-8577-5688CC5C4483}"/>
-    <hyperlink ref="H50" r:id="rId14" xr:uid="{6E674C2E-77D2-48D3-8FF1-3DFBAAC71A86}"/>
-    <hyperlink ref="H19" r:id="rId15" xr:uid="{861C02DC-9602-4EBD-BFCA-166E6FF661DF}"/>
-    <hyperlink ref="H39" r:id="rId16" xr:uid="{5865A33A-D283-46BB-A0C9-DD1ABA66D843}"/>
-    <hyperlink ref="H51" r:id="rId17" xr:uid="{4C24F1AF-5B31-4D2D-8CEC-1E9433B35D6F}"/>
-    <hyperlink ref="H31" r:id="rId18" xr:uid="{E8F9F58E-1774-4339-9F9F-D75EA919727F}"/>
-    <hyperlink ref="H38" r:id="rId19" xr:uid="{DD58FBF2-47A6-4B4E-8F6A-C2C38F7FA785}"/>
-    <hyperlink ref="H47" r:id="rId20" xr:uid="{17E501ED-6A4E-4520-AF79-534AA075D928}"/>
-    <hyperlink ref="H37" r:id="rId21" xr:uid="{8248FE62-A215-4C56-ACAE-D5A16544D613}"/>
-    <hyperlink ref="H14" r:id="rId22" xr:uid="{CBD6A5C3-8D33-4D6C-A15F-6357B905FF13}"/>
-    <hyperlink ref="H13" r:id="rId23" xr:uid="{1DCC11C5-3F3A-4890-B383-6C3870AA333D}"/>
-    <hyperlink ref="H26" r:id="rId24" xr:uid="{FD0E5334-48B0-40FB-A9FF-F696E8F176CC}"/>
+    <hyperlink ref="H27" r:id="rId8" xr:uid="{E408494E-7E8E-41D7-938A-3B6D6C73155E}"/>
+    <hyperlink ref="H29" r:id="rId9" xr:uid="{ED07EF6C-6B1F-4EA2-91E3-A1C979C1693B}"/>
+    <hyperlink ref="H51" r:id="rId10" xr:uid="{ED7E6175-FDA5-4A53-9D9E-E283CB8D9D72}"/>
+    <hyperlink ref="H19" r:id="rId11" xr:uid="{4F7727DE-AC86-446A-8520-734F8430C4D8}"/>
+    <hyperlink ref="H21" r:id="rId12" xr:uid="{913D367D-AED8-48DA-AB52-F7C3923CBD60}"/>
+    <hyperlink ref="H50" r:id="rId13" xr:uid="{A2AF3482-4DB3-436D-8577-5688CC5C4483}"/>
+    <hyperlink ref="H47" r:id="rId14" xr:uid="{6E674C2E-77D2-48D3-8FF1-3DFBAAC71A86}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{861C02DC-9602-4EBD-BFCA-166E6FF661DF}"/>
+    <hyperlink ref="H36" r:id="rId16" xr:uid="{5865A33A-D283-46BB-A0C9-DD1ABA66D843}"/>
+    <hyperlink ref="H48" r:id="rId17" xr:uid="{4C24F1AF-5B31-4D2D-8CEC-1E9433B35D6F}"/>
+    <hyperlink ref="H28" r:id="rId18" xr:uid="{E8F9F58E-1774-4339-9F9F-D75EA919727F}"/>
+    <hyperlink ref="H35" r:id="rId19" xr:uid="{DD58FBF2-47A6-4B4E-8F6A-C2C38F7FA785}"/>
+    <hyperlink ref="H44" r:id="rId20" xr:uid="{17E501ED-6A4E-4520-AF79-534AA075D928}"/>
+    <hyperlink ref="H34" r:id="rId21" xr:uid="{8248FE62-A215-4C56-ACAE-D5A16544D613}"/>
+    <hyperlink ref="H11" r:id="rId22" xr:uid="{CBD6A5C3-8D33-4D6C-A15F-6357B905FF13}"/>
+    <hyperlink ref="H10" r:id="rId23" xr:uid="{1DCC11C5-3F3A-4890-B383-6C3870AA333D}"/>
+    <hyperlink ref="H23" r:id="rId24" xr:uid="{FD0E5334-48B0-40FB-A9FF-F696E8F176CC}"/>
     <hyperlink ref="H2" r:id="rId25" xr:uid="{B9438D65-C539-4D21-A86F-5EA55623C5E2}"/>
-    <hyperlink ref="H34" r:id="rId26" xr:uid="{B206122D-E059-4A3F-B04C-33C43F46D1FB}"/>
-    <hyperlink ref="H43" r:id="rId27" xr:uid="{F0B3E301-98D5-4A25-B588-1A9D5993BCFB}"/>
+    <hyperlink ref="H31" r:id="rId26" xr:uid="{B206122D-E059-4A3F-B04C-33C43F46D1FB}"/>
+    <hyperlink ref="H40" r:id="rId27" xr:uid="{F0B3E301-98D5-4A25-B588-1A9D5993BCFB}"/>
     <hyperlink ref="H6" r:id="rId28" xr:uid="{20BC8170-3E27-4E25-A10E-853B291FAF4E}"/>
     <hyperlink ref="H8" r:id="rId29" xr:uid="{A74B7810-C2C2-43C3-84AC-7B072E0CFEC8}"/>
-    <hyperlink ref="H29" r:id="rId30" xr:uid="{C1CA7A5E-0531-457B-935E-BE67802F9AB7}"/>
+    <hyperlink ref="H26" r:id="rId30" xr:uid="{C1CA7A5E-0531-457B-935E-BE67802F9AB7}"/>
     <hyperlink ref="H4" r:id="rId31" xr:uid="{03179AD0-EA91-406C-8018-E2BBE3C4DCA3}"/>
     <hyperlink ref="H5" r:id="rId32" xr:uid="{0140D90C-7A54-45F7-93A4-AC0938A062AE}"/>
-    <hyperlink ref="H12" r:id="rId33" xr:uid="{B86B02AB-B066-452F-B958-24779CAC5C68}"/>
-    <hyperlink ref="H9" r:id="rId34" xr:uid="{8171AEF2-B20C-4ADC-BEF7-47DD15C5AF45}"/>
-    <hyperlink ref="H10" r:id="rId35" xr:uid="{EED04C82-23C4-41C1-AE6A-5394B70855A2}"/>
-    <hyperlink ref="H11" r:id="rId36" xr:uid="{51781E7B-8E47-439F-97F3-FAFA5710F9E3}"/>
-    <hyperlink ref="H23" r:id="rId37" xr:uid="{CABA8183-EEE5-4AB0-A35B-53C5445B7D24}"/>
-    <hyperlink ref="H36" r:id="rId38" xr:uid="{96A8599B-2665-441E-9E67-E85E29663830}"/>
-    <hyperlink ref="H40" r:id="rId39" xr:uid="{B7C096BB-71EF-43E2-AF49-69C4EE82205F}"/>
-    <hyperlink ref="H52" r:id="rId40" xr:uid="{98E6FD59-0B7C-4465-9ABA-F25F4907681B}"/>
-    <hyperlink ref="H21" r:id="rId41" xr:uid="{9F9EB90F-CFE8-47B8-A47C-DB6E47ED628B}"/>
-    <hyperlink ref="H35" r:id="rId42" xr:uid="{6F835526-193A-47D9-BA5D-57BE14B720F5}"/>
-    <hyperlink ref="H41" r:id="rId43" xr:uid="{84EEA450-C907-4200-A265-D369D7411558}"/>
+    <hyperlink ref="H9" r:id="rId33" xr:uid="{8171AEF2-B20C-4ADC-BEF7-47DD15C5AF45}"/>
+    <hyperlink ref="H20" r:id="rId34" xr:uid="{CABA8183-EEE5-4AB0-A35B-53C5445B7D24}"/>
+    <hyperlink ref="H33" r:id="rId35" xr:uid="{96A8599B-2665-441E-9E67-E85E29663830}"/>
+    <hyperlink ref="H37" r:id="rId36" xr:uid="{B7C096BB-71EF-43E2-AF49-69C4EE82205F}"/>
+    <hyperlink ref="H49" r:id="rId37" xr:uid="{98E6FD59-0B7C-4465-9ABA-F25F4907681B}"/>
+    <hyperlink ref="H18" r:id="rId38" xr:uid="{9F9EB90F-CFE8-47B8-A47C-DB6E47ED628B}"/>
+    <hyperlink ref="H32" r:id="rId39" xr:uid="{6F835526-193A-47D9-BA5D-57BE14B720F5}"/>
+    <hyperlink ref="H38" r:id="rId40" xr:uid="{84EEA450-C907-4200-A265-D369D7411558}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId44"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
--- a/screening_deep.xlsx
+++ b/screening_deep.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ΔΗΜΗΤΡΗΣ\Documents\GitHubs\AI-marine-litter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56D939C-EB52-438F-9782-5FF2773BBDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE34F20-F231-4FD3-9C8A-83C39F0F97E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29730" yWindow="735" windowWidth="25770" windowHeight="10395" xr2:uid="{9E4A43DE-8FF9-4A91-B492-0B4C1599A160}"/>
+    <workbookView xWindow="29730" yWindow="735" windowWidth="25770" windowHeight="13185" xr2:uid="{9E4A43DE-8FF9-4A91-B492-0B4C1599A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="264">
   <si>
     <t>References</t>
   </si>
@@ -654,9 +654,6 @@
     <t>UAV</t>
   </si>
   <si>
-    <t>0,6-0,86</t>
-  </si>
-  <si>
     <t>0,6-0,87</t>
   </si>
   <si>
@@ -853,6 +850,9 @@
   </si>
   <si>
     <t>see map with satelitte data</t>
+  </si>
+  <si>
+    <t>Spain, Portugal</t>
   </si>
 </sst>
 </file>
@@ -1375,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789D46A0-4CC3-42C0-9023-C48815470A65}">
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>194</v>
@@ -1429,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K1" s="13" t="s">
         <v>140</v>
@@ -1458,10 +1458,10 @@
         <v>132</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>193</v>
@@ -1470,7 +1470,7 @@
         <v>106</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>157</v>
@@ -1505,7 +1505,7 @@
         <v>161</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>195</v>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>153</v>
@@ -1527,7 +1527,7 @@
         <v>138</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1547,7 +1547,7 @@
         <v>196</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>197</v>
@@ -1556,7 +1556,7 @@
         <v>173</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>88</v>
+        <v>263</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>157</v>
@@ -1579,43 +1579,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>198</v>
+        <v>253</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.96</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1623,41 +1621,41 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.96</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1665,41 +1663,43 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1">
-        <v>2019</v>
+        <v>2004</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>260</v>
+        <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.82</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>147</v>
+        <v>82</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -1707,40 +1707,40 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
       <c r="C8" s="1">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.82</v>
+        <v>253</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J8" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>141</v>
@@ -1751,40 +1751,38 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="I9" s="8"/>
       <c r="J9" s="7" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>141</v>
@@ -1795,35 +1793,37 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="C10" s="1">
         <v>2021</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="8"/>
+        <v>71</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="J10" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>138</v>
@@ -1837,37 +1837,35 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1">
         <v>2021</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="H11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="3"/>
       <c r="J11" s="7" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>138</v>
@@ -1876,46 +1874,48 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C12" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>205</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>88</v>
+      </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1923,28 +1923,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>128</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>157</v>
@@ -1953,7 +1953,7 @@
         <v>81</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>83</v>
@@ -1962,35 +1962,35 @@
         <v>142</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>196</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K14" s="4" t="s">
@@ -2000,10 +2000,10 @@
         <v>151</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2011,114 +2011,114 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>84</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>157</v>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="J15" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>151</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>210</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="J16" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="C17" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>86</v>
+        <v>247</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>157</v>
@@ -2127,10 +2127,10 @@
         <v>153</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>141</v>
@@ -2141,46 +2141,46 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>246</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>247</v>
+        <v>257</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.75</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>263</v>
+        <v>33</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2191,19 +2191,19 @@
         <v>2020</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>182</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0.75</v>
+        <v>257</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>88</v>
@@ -2218,7 +2218,7 @@
         <v>107</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>142</v>
@@ -2235,19 +2235,19 @@
         <v>2020</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>212</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>88</v>
@@ -2259,57 +2259,57 @@
         <v>81</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>122</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H21" s="5" t="s">
-        <v>35</v>
+      <c r="H21" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -2317,40 +2317,38 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>157</v>
+      <c r="H22" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>81</v>
+        <v>156</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>141</v>
@@ -2367,248 +2365,248 @@
         <v>2020</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H23" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="8"/>
+      <c r="H23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="C24" s="1">
         <v>2020</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="3"/>
+        <v>253</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>92</v>
+      </c>
       <c r="J24" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C25" s="1">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>196</v>
+        <v>241</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.72</v>
+      </c>
       <c r="H25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>165</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>166</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0.72</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G26" s="2"/>
       <c r="H26" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="J26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>22</v>
+      <c r="B27" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="20">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>93</v>
+        <v>253</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>142</v>
+      <c r="K27" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="N27" s="20" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="20">
-        <v>2022</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>52</v>
+      <c r="B28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>262</v>
+        <v>200</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G28" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>263</v>
-      </c>
+      <c r="H28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="8"/>
       <c r="J28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K28" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="L28" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="M28" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="N28" s="20" t="s">
+      <c r="L28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2617,29 +2615,27 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>201</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>219</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>153</v>
@@ -2659,36 +2655,36 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>220</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="8"/>
+        <v>116</v>
+      </c>
+      <c r="I30" s="3"/>
       <c r="J30" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>141</v>
@@ -2699,33 +2695,35 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="C31" s="1">
         <v>2021</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="F31" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>116</v>
+        <v>249</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>138</v>
@@ -2739,27 +2737,29 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
       <c r="C32" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>188</v>
+      </c>
       <c r="J32" s="7" t="s">
         <v>157</v>
       </c>
@@ -2776,42 +2776,38 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>185</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1">
         <v>2022</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>196</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>222</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>188</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I33" s="8"/>
       <c r="J33" s="7" t="s">
-        <v>157</v>
+        <v>255</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>138</v>
@@ -2820,41 +2816,41 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:14" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>223</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>141</v>
@@ -2865,53 +2861,57 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C35" s="1">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="F35" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>224</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I35" s="8"/>
+        <v>47</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="J35" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>82</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="C36" s="1">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>196</v>
@@ -2919,11 +2919,11 @@
       <c r="F36" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>225</v>
+      <c r="G36" s="2">
+        <v>0.44</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>95</v>
@@ -2935,56 +2935,54 @@
         <v>81</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" s="20">
         <v>2021</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>190</v>
+      <c r="D37" s="21" t="s">
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0.44</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>95</v>
+        <v>253</v>
+      </c>
+      <c r="G37" s="21"/>
+      <c r="H37" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="K37" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="L37" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="M37" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="N37" s="20" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2992,41 +2990,39 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C38" s="20">
-        <v>2021</v>
-      </c>
-      <c r="D38" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="B38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="3"/>
       <c r="J38" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K38" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="L38" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="M38" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="N38" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N38" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3035,30 +3031,30 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1">
         <v>2020</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I39" s="3"/>
+      <c r="H39" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" s="8"/>
       <c r="J39" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>151</v>
@@ -3070,73 +3066,77 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>206</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>227</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>96</v>
+      </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>157</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1">
         <v>2021</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>5</v>
+      <c r="H41" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J41" s="7" t="s">
         <v>157</v>
@@ -3145,13 +3145,13 @@
         <v>81</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -3159,81 +3159,81 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
         <v>2021</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>125</v>
+      <c r="H42" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>81</v>
+        <v>155</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="C43" s="1">
         <v>2021</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>230</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>157</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>138</v>
@@ -3247,30 +3247,30 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="C44" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>63</v>
+      <c r="H44" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J44" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K44" s="4" t="s">
@@ -3286,42 +3286,40 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:14" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C45" s="1">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>261</v>
+        <v>56</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>232</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>157</v>
+        <v>57</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>138</v>
@@ -3330,126 +3328,128 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2020</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>201</v>
+      <c r="B46" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G46" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G46" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K46" s="4" t="s">
+      <c r="H46" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="L46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M46" s="4" t="s">
+      <c r="L46" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>138</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="14">
-        <v>2016</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>161</v>
+      <c r="B47" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" s="24">
+        <v>2020</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>200</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G47" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="G47" s="17" t="s">
         <v>234</v>
       </c>
-      <c r="H47" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="26"/>
-      <c r="J47" s="27" t="s">
-        <v>256</v>
-      </c>
-      <c r="K47" s="16" t="s">
+      <c r="H47" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="I47" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="K47" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="M47" s="16" t="s">
+      <c r="M47" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="N47" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C48" s="24">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>235</v>
+        <v>253</v>
+      </c>
+      <c r="G48" s="17">
+        <v>0.91</v>
       </c>
       <c r="H48" s="28" t="s">
-        <v>49</v>
+        <v>239</v>
       </c>
       <c r="I48" s="30" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="J48" s="31" t="s">
         <v>157</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c r="M48" s="18" t="s">
         <v>138</v>
@@ -3458,39 +3458,39 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:14" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="24" t="s">
-        <v>238</v>
+      <c r="B49" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C49" s="24">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>239</v>
+        <v>36</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G49" s="17">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="I49" s="30" t="s">
-        <v>244</v>
+        <v>38</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="J49" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="K49" s="18" t="s">
-        <v>81</v>
+      <c r="K49" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="L49" s="18" t="s">
         <v>85</v>
@@ -3498,7 +3498,7 @@
       <c r="M49" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="N49" s="24" t="s">
+      <c r="N49" s="1" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3507,178 +3507,133 @@
         <v>49</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C50" s="24">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0.77</v>
+        <v>253</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>235</v>
       </c>
       <c r="H50" s="28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J50" s="31" t="s">
         <v>157</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="C51" s="24">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>207</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E51" s="17"/>
       <c r="F51" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H51" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I51" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="J51" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>153</v>
+      <c r="H51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="M51" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C52" s="24">
-        <v>2021</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E52" s="17"/>
-      <c r="F52" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="K52" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L52" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="M52" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="N52" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:N52" xr:uid="{789D46A0-4CC3-42C0-9023-C48815470A65}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
-    <sortCondition ref="B1:B52"/>
+  <autoFilter ref="A1:N51" xr:uid="{789D46A0-4CC3-42C0-9023-C48815470A65}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N51">
+    <sortCondition ref="B1:B51"/>
   </sortState>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H41" r:id="rId1" xr:uid="{92E486BF-BD84-4CBE-B8DE-55B9096721DA}"/>
-    <hyperlink ref="H25" r:id="rId2" xr:uid="{90E5CE4A-0298-4407-A0C0-6C1A04BF00E7}"/>
-    <hyperlink ref="H30" r:id="rId3" xr:uid="{2C202121-979D-4E8B-992C-506307F9F72D}"/>
-    <hyperlink ref="H14" r:id="rId4" xr:uid="{095524AE-D32E-4711-B5D2-A9B0A9F8B310}"/>
-    <hyperlink ref="H17" r:id="rId5" xr:uid="{DBC530D3-8CEB-431D-BB68-C1D4D1EEC94B}"/>
-    <hyperlink ref="H43" r:id="rId6" xr:uid="{AC4C0384-BCF2-4BC1-8278-5645068DACA4}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{64BB1254-C2C4-4F58-BB6D-D1810CE9504F}"/>
-    <hyperlink ref="H27" r:id="rId8" xr:uid="{E408494E-7E8E-41D7-938A-3B6D6C73155E}"/>
-    <hyperlink ref="H29" r:id="rId9" xr:uid="{ED07EF6C-6B1F-4EA2-91E3-A1C979C1693B}"/>
-    <hyperlink ref="H51" r:id="rId10" xr:uid="{ED7E6175-FDA5-4A53-9D9E-E283CB8D9D72}"/>
-    <hyperlink ref="H19" r:id="rId11" xr:uid="{4F7727DE-AC86-446A-8520-734F8430C4D8}"/>
-    <hyperlink ref="H21" r:id="rId12" xr:uid="{913D367D-AED8-48DA-AB52-F7C3923CBD60}"/>
-    <hyperlink ref="H50" r:id="rId13" xr:uid="{A2AF3482-4DB3-436D-8577-5688CC5C4483}"/>
-    <hyperlink ref="H47" r:id="rId14" xr:uid="{6E674C2E-77D2-48D3-8FF1-3DFBAAC71A86}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{861C02DC-9602-4EBD-BFCA-166E6FF661DF}"/>
-    <hyperlink ref="H36" r:id="rId16" xr:uid="{5865A33A-D283-46BB-A0C9-DD1ABA66D843}"/>
-    <hyperlink ref="H48" r:id="rId17" xr:uid="{4C24F1AF-5B31-4D2D-8CEC-1E9433B35D6F}"/>
-    <hyperlink ref="H28" r:id="rId18" xr:uid="{E8F9F58E-1774-4339-9F9F-D75EA919727F}"/>
-    <hyperlink ref="H35" r:id="rId19" xr:uid="{DD58FBF2-47A6-4B4E-8F6A-C2C38F7FA785}"/>
-    <hyperlink ref="H44" r:id="rId20" xr:uid="{17E501ED-6A4E-4520-AF79-534AA075D928}"/>
-    <hyperlink ref="H34" r:id="rId21" xr:uid="{8248FE62-A215-4C56-ACAE-D5A16544D613}"/>
-    <hyperlink ref="H11" r:id="rId22" xr:uid="{CBD6A5C3-8D33-4D6C-A15F-6357B905FF13}"/>
-    <hyperlink ref="H10" r:id="rId23" xr:uid="{1DCC11C5-3F3A-4890-B383-6C3870AA333D}"/>
-    <hyperlink ref="H23" r:id="rId24" xr:uid="{FD0E5334-48B0-40FB-A9FF-F696E8F176CC}"/>
+    <hyperlink ref="H40" r:id="rId1" xr:uid="{92E486BF-BD84-4CBE-B8DE-55B9096721DA}"/>
+    <hyperlink ref="H24" r:id="rId2" xr:uid="{90E5CE4A-0298-4407-A0C0-6C1A04BF00E7}"/>
+    <hyperlink ref="H29" r:id="rId3" xr:uid="{2C202121-979D-4E8B-992C-506307F9F72D}"/>
+    <hyperlink ref="H13" r:id="rId4" xr:uid="{095524AE-D32E-4711-B5D2-A9B0A9F8B310}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{DBC530D3-8CEB-431D-BB68-C1D4D1EEC94B}"/>
+    <hyperlink ref="H42" r:id="rId6" xr:uid="{AC4C0384-BCF2-4BC1-8278-5645068DACA4}"/>
+    <hyperlink ref="H6" r:id="rId7" xr:uid="{64BB1254-C2C4-4F58-BB6D-D1810CE9504F}"/>
+    <hyperlink ref="H26" r:id="rId8" xr:uid="{E408494E-7E8E-41D7-938A-3B6D6C73155E}"/>
+    <hyperlink ref="H28" r:id="rId9" xr:uid="{ED07EF6C-6B1F-4EA2-91E3-A1C979C1693B}"/>
+    <hyperlink ref="H50" r:id="rId10" xr:uid="{ED7E6175-FDA5-4A53-9D9E-E283CB8D9D72}"/>
+    <hyperlink ref="H18" r:id="rId11" xr:uid="{4F7727DE-AC86-446A-8520-734F8430C4D8}"/>
+    <hyperlink ref="H20" r:id="rId12" xr:uid="{913D367D-AED8-48DA-AB52-F7C3923CBD60}"/>
+    <hyperlink ref="H49" r:id="rId13" xr:uid="{A2AF3482-4DB3-436D-8577-5688CC5C4483}"/>
+    <hyperlink ref="H46" r:id="rId14" xr:uid="{6E674C2E-77D2-48D3-8FF1-3DFBAAC71A86}"/>
+    <hyperlink ref="H15" r:id="rId15" xr:uid="{861C02DC-9602-4EBD-BFCA-166E6FF661DF}"/>
+    <hyperlink ref="H35" r:id="rId16" xr:uid="{5865A33A-D283-46BB-A0C9-DD1ABA66D843}"/>
+    <hyperlink ref="H47" r:id="rId17" xr:uid="{4C24F1AF-5B31-4D2D-8CEC-1E9433B35D6F}"/>
+    <hyperlink ref="H27" r:id="rId18" xr:uid="{E8F9F58E-1774-4339-9F9F-D75EA919727F}"/>
+    <hyperlink ref="H34" r:id="rId19" xr:uid="{DD58FBF2-47A6-4B4E-8F6A-C2C38F7FA785}"/>
+    <hyperlink ref="H43" r:id="rId20" xr:uid="{17E501ED-6A4E-4520-AF79-534AA075D928}"/>
+    <hyperlink ref="H33" r:id="rId21" xr:uid="{8248FE62-A215-4C56-ACAE-D5A16544D613}"/>
+    <hyperlink ref="H10" r:id="rId22" xr:uid="{CBD6A5C3-8D33-4D6C-A15F-6357B905FF13}"/>
+    <hyperlink ref="H9" r:id="rId23" xr:uid="{1DCC11C5-3F3A-4890-B383-6C3870AA333D}"/>
+    <hyperlink ref="H22" r:id="rId24" xr:uid="{FD0E5334-48B0-40FB-A9FF-F696E8F176CC}"/>
     <hyperlink ref="H2" r:id="rId25" xr:uid="{B9438D65-C539-4D21-A86F-5EA55623C5E2}"/>
-    <hyperlink ref="H31" r:id="rId26" xr:uid="{B206122D-E059-4A3F-B04C-33C43F46D1FB}"/>
-    <hyperlink ref="H40" r:id="rId27" xr:uid="{F0B3E301-98D5-4A25-B588-1A9D5993BCFB}"/>
-    <hyperlink ref="H6" r:id="rId28" xr:uid="{20BC8170-3E27-4E25-A10E-853B291FAF4E}"/>
-    <hyperlink ref="H8" r:id="rId29" xr:uid="{A74B7810-C2C2-43C3-84AC-7B072E0CFEC8}"/>
-    <hyperlink ref="H26" r:id="rId30" xr:uid="{C1CA7A5E-0531-457B-935E-BE67802F9AB7}"/>
-    <hyperlink ref="H4" r:id="rId31" xr:uid="{03179AD0-EA91-406C-8018-E2BBE3C4DCA3}"/>
-    <hyperlink ref="H5" r:id="rId32" xr:uid="{0140D90C-7A54-45F7-93A4-AC0938A062AE}"/>
-    <hyperlink ref="H9" r:id="rId33" xr:uid="{8171AEF2-B20C-4ADC-BEF7-47DD15C5AF45}"/>
-    <hyperlink ref="H20" r:id="rId34" xr:uid="{CABA8183-EEE5-4AB0-A35B-53C5445B7D24}"/>
-    <hyperlink ref="H33" r:id="rId35" xr:uid="{96A8599B-2665-441E-9E67-E85E29663830}"/>
-    <hyperlink ref="H37" r:id="rId36" xr:uid="{B7C096BB-71EF-43E2-AF49-69C4EE82205F}"/>
-    <hyperlink ref="H49" r:id="rId37" xr:uid="{98E6FD59-0B7C-4465-9ABA-F25F4907681B}"/>
-    <hyperlink ref="H18" r:id="rId38" xr:uid="{9F9EB90F-CFE8-47B8-A47C-DB6E47ED628B}"/>
-    <hyperlink ref="H32" r:id="rId39" xr:uid="{6F835526-193A-47D9-BA5D-57BE14B720F5}"/>
-    <hyperlink ref="H38" r:id="rId40" xr:uid="{84EEA450-C907-4200-A265-D369D7411558}"/>
+    <hyperlink ref="H30" r:id="rId26" xr:uid="{B206122D-E059-4A3F-B04C-33C43F46D1FB}"/>
+    <hyperlink ref="H39" r:id="rId27" xr:uid="{F0B3E301-98D5-4A25-B588-1A9D5993BCFB}"/>
+    <hyperlink ref="H5" r:id="rId28" xr:uid="{20BC8170-3E27-4E25-A10E-853B291FAF4E}"/>
+    <hyperlink ref="H7" r:id="rId29" xr:uid="{A74B7810-C2C2-43C3-84AC-7B072E0CFEC8}"/>
+    <hyperlink ref="H25" r:id="rId30" xr:uid="{C1CA7A5E-0531-457B-935E-BE67802F9AB7}"/>
+    <hyperlink ref="H4" r:id="rId31" xr:uid="{0140D90C-7A54-45F7-93A4-AC0938A062AE}"/>
+    <hyperlink ref="H8" r:id="rId32" xr:uid="{8171AEF2-B20C-4ADC-BEF7-47DD15C5AF45}"/>
+    <hyperlink ref="H19" r:id="rId33" xr:uid="{CABA8183-EEE5-4AB0-A35B-53C5445B7D24}"/>
+    <hyperlink ref="H32" r:id="rId34" xr:uid="{96A8599B-2665-441E-9E67-E85E29663830}"/>
+    <hyperlink ref="H36" r:id="rId35" xr:uid="{B7C096BB-71EF-43E2-AF49-69C4EE82205F}"/>
+    <hyperlink ref="H48" r:id="rId36" xr:uid="{98E6FD59-0B7C-4465-9ABA-F25F4907681B}"/>
+    <hyperlink ref="H17" r:id="rId37" xr:uid="{9F9EB90F-CFE8-47B8-A47C-DB6E47ED628B}"/>
+    <hyperlink ref="H31" r:id="rId38" xr:uid="{6F835526-193A-47D9-BA5D-57BE14B720F5}"/>
+    <hyperlink ref="H37" r:id="rId39" xr:uid="{84EEA450-C907-4200-A265-D369D7411558}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>